--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/42/incorrect_predictions_42.xlsx
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff,</t>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-17</t>
+          <t>0-27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/42/incorrect_predictions_42.xlsx
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance</t>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-27</t>
+          <t>0-17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
